--- a/data/trans_camb/P9_3-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P9_3-Urba-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,95</t>
+          <t>-0,76</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,64</t>
+          <t>3,32</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,45</t>
+          <t>1,37</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,52; 5,42</t>
+          <t>-6,89; 5,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 9,13</t>
+          <t>-1,96; 8,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 4,96</t>
+          <t>-2,84; 5,41</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,7%</t>
+          <t>-1,37%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,79%</t>
+          <t>6,18%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,66%</t>
+          <t>2,51%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-13,03; 10,13</t>
+          <t>-11,55; 10,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 18,15</t>
+          <t>-3,39; 16,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 9,53</t>
+          <t>-4,89; 10,49</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,63</t>
+          <t>5,13</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,02</t>
+          <t>2,92</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,1; 8,19</t>
+          <t>-6,19; 8,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 10,44</t>
+          <t>-1,58; 10,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 7,8</t>
+          <t>-2,33; 7,55</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,63%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10,27%</t>
+          <t>11,37%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,19%</t>
+          <t>5,99%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-11,02; 16,73</t>
+          <t>-11,14; 16,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 24,43</t>
+          <t>-3,45; 25,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 16,8</t>
+          <t>-4,55; 16,53</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>3,16</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,37</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,19</t>
+          <t>2,08</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-14,8; 13,9</t>
+          <t>-10,87; 17,05</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,36; 14,68</t>
+          <t>-11,01; 11,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,86; 10,28</t>
+          <t>-7,02; 10,13</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,08%</t>
+          <t>7,39%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>6,08%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2,9%</t>
+          <t>5,08%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-29,08; 38,28</t>
+          <t>-21,42; 47,51</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-19,61; 42,78</t>
+          <t>-24,73; 33,86</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-18,03; 27,16</t>
+          <t>-15,68; 27,09</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,92</t>
+          <t>3,79</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,06</t>
+          <t>2,09</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 4,67</t>
+          <t>-4,28; 4,86</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,1; 7,54</t>
+          <t>-0,05; 7,66</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 4,74</t>
+          <t>-0,67; 5,0</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,21%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>8,06%</t>
+          <t>7,79%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>4,12%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,24 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-8,5; 9,05</t>
+          <t>-7,81; 9,6</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,33; 16,16</t>
+          <t>-0,1; 16,38</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 9,56</t>
+          <t>-1,36; 10,02</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P9_3-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P9_3-Urba-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-0,76</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>3,32</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,37</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-1.384020126023211</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>4.051314543495954</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>1.455389772814319</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-6,89; 5,43</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-1,96; 8,22</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-2,84; 5,41</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-7.560971882064161</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-1.150323191245326</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-2.351521189816773</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-1,37%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>6,18%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,51%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>4.997276235922918</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>8.854674562974871</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>5.66947387760813</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-11,55; 10,45</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-3,39; 16,29</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-4,89; 10,49</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>-0.02486007775839729</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0.07547520737706855</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.02664035601668563</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,68</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>5,13</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>2,92</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.1309997830660554</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.02070788443334866</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.04201659684276969</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-6,19; 8,64</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-1,58; 10,92</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-2,33; 7,55</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.09603919325570925</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.1767534259039801</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.1080942238056967</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1,29%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>11,37%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>5,99%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>1.38282440622427</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>4.939535518084198</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>3.179830828611946</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-11,14; 16,57</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-3,45; 25,61</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-4,55; 16,53</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-5.391428920664334</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-1.574278202348643</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-1.770001504455815</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>3,16</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,97</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>2,08</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>9.390374678725115</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>10.69606220678036</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>8.070110546036545</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-10,87; 17,05</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-11,01; 11,55</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-7,02; 10,13</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>0.02625694427245869</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>0.1095571439239893</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.06510129005419453</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>7,39%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>2,49%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>5,08%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.09835796270562644</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.03136456152680859</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.03518280243868346</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-21,42; 47,51</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-24,73; 33,86</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-15,68; 27,09</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.1853492582684628</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.2548614255791182</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.1751562104987389</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,93 +775,209 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>0,3</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>3,79</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>2,09</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>2.883881441962405</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>1.714242235447838</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>2.306711922132842</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-4,28; 4,86</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-0,05; 7,66</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-0,67; 5,0</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-11.30822091495462</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-10.07687506944975</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-7.068211012119208</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>0,58%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>7,79%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>4,12%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>17.03874827624631</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>12.96473513788566</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>10.61535458941733</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-7,81; 9,6</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-0,1; 16,38</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-1,36; 10,02</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>0.06747229016301688</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>0.04388959312113528</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>0.05636577705421111</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.2182996038384273</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.2233315013642145</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.1653950620762741</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.4871960867594183</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.3682793212452407</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.2746735525054778</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>0.2521709840393904</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>4.168974775859241</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>2.255832394652102</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-4.524359865318195</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.3715834063408525</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-0.7112570364247218</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>4.857088567018268</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>8.219641234297361</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>5.294206225256399</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>0.00476887022416716</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>0.08567893490173933</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0.04447657257472159</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.08195468708903089</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>0.00677907598173999</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.01519930831506782</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.09492792576712292</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.1777651572734176</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.1069033460756285</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -936,11 +985,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
